--- a/classification-systems/nzlum/build/management_practices.xlsx
+++ b/classification-systems/nzlum/build/management_practices.xlsx
@@ -484,14 +484,10 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>barn laid</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/barn_laid</t>
-        </is>
-      </c>
+          <t xml:space="preserve">milking walk through </t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
@@ -500,14 +496,10 @@
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>caged</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/caged</t>
-        </is>
-      </c>
+          <t>milking rotary</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
@@ -516,14 +508,10 @@
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>free range</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/free_range</t>
-        </is>
-      </c>
+          <t>milking hand</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
@@ -532,14 +520,10 @@
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>milking hand</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/milking_hand</t>
-        </is>
-      </c>
+          <t>caged</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
@@ -548,14 +532,10 @@
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>milking herringbone</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/milking_herringbone</t>
-        </is>
-      </c>
+          <t>free range</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
@@ -564,14 +544,10 @@
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>milking rotary</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/milking_rotary</t>
-        </is>
-      </c>
+          <t>barn laid</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
@@ -580,14 +556,10 @@
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">milking walk through </t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/milking_walk_through</t>
-        </is>
-      </c>
+          <t>milking herringbone</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
@@ -600,14 +572,10 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>biodynamic</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/biodynamic</t>
-        </is>
-      </c>
+          <t>tillage conservation</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
@@ -616,14 +584,10 @@
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>contour banks</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/contour_banks</t>
-        </is>
-      </c>
+          <t>cropping rotational</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
@@ -632,14 +596,10 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>controlled traffic farming</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/controlled_traffic_farming</t>
-        </is>
-      </c>
+          <t>residues mulched</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
@@ -648,14 +608,10 @@
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>crop pasture rotation</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/crop_pasture_rotation</t>
-        </is>
-      </c>
+          <t>organic</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
@@ -664,14 +620,10 @@
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>cropping continuous</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_continuous</t>
-        </is>
-      </c>
+          <t>residues heavily grazed</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
@@ -680,14 +632,10 @@
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>cropping cover</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_cover</t>
-        </is>
-      </c>
+          <t>cropping multiple</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
@@ -696,14 +644,10 @@
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>cropping multiple</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_multiple</t>
-        </is>
-      </c>
+          <t>biodynamic</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr"/>
@@ -712,14 +656,10 @@
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>cropping opportunistic</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_opportunistic</t>
-        </is>
-      </c>
+          <t>cropping cover</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
@@ -728,14 +668,10 @@
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>cropping rotational</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_rotational</t>
-        </is>
-      </c>
+          <t>crop pasture rotation</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
@@ -744,14 +680,10 @@
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>cropping row alley</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_row_alley</t>
-        </is>
-      </c>
+          <t>fallow chemical</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
@@ -760,14 +692,10 @@
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>cropping strip</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/cropping_strip</t>
-        </is>
-      </c>
+          <t>tillage conventional</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
@@ -776,14 +704,10 @@
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>fallow chemical</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/fallow_chemical</t>
-        </is>
-      </c>
+          <t>precision agriculture</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
@@ -792,14 +716,10 @@
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>fallow mechanical</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/fallow_mechanical</t>
-        </is>
-      </c>
+          <t>residues intact</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
@@ -808,14 +728,10 @@
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>organic</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/organic</t>
-        </is>
-      </c>
+          <t>controlled traffic farming</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
@@ -824,14 +740,10 @@
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>pasture cropping</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/pasture_cropping</t>
-        </is>
-      </c>
+          <t>residues burnt</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
@@ -840,14 +752,10 @@
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>precision agriculture</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/precision_agriculture</t>
-        </is>
-      </c>
+          <t>cropping opportunistic</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
@@ -856,14 +764,10 @@
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>residues baled</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/residues_baled</t>
-        </is>
-      </c>
+          <t>contour banks</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
@@ -872,14 +776,10 @@
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>residues burnt</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/residues_burnt</t>
-        </is>
-      </c>
+          <t>fallow mechanical</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
@@ -888,14 +788,10 @@
       <c r="A27" s="2" t="n"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>residues heavily grazed</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/residues_heavily_grazed</t>
-        </is>
-      </c>
+          <t>cropping continuous</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
@@ -904,14 +800,10 @@
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>residues incorporated</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/residues_incorporated</t>
-        </is>
-      </c>
+          <t>pasture cropping</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
@@ -920,14 +812,10 @@
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>residues intact</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/residues_intact</t>
-        </is>
-      </c>
+          <t>cropping strip</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
@@ -936,14 +824,10 @@
       <c r="A30" s="2" t="n"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>residues mulched</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/residues_mulched</t>
-        </is>
-      </c>
+          <t>residues incorporated</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
@@ -952,14 +836,10 @@
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>tillage conservation</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/tillage_conservation</t>
-        </is>
-      </c>
+          <t>cropping row alley</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
@@ -968,14 +848,10 @@
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>tillage conventional</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/tillage_conventional</t>
-        </is>
-      </c>
+          <t>residues baled</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
@@ -988,29 +864,13 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>grazing rotational</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/grazing_rotational</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>Moving livestock between paddocks in regular sequence to permit the recovery and growth of the pasture plants after grazing.</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Stocking rates per paddock are higher than under set stocking.</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Also cell grazing.</t>
-        </is>
-      </c>
+          <t>grazing tactical</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n"/>
@@ -1019,11 +879,7 @@
           <t>grazing set stocking</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/grazing_set_stocking</t>
-        </is>
-      </c>
+      <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
@@ -1032,17 +888,25 @@
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>grazing tactical</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/grazing_tactical</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
+          <t>grazing rotational</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Moving livestock between paddocks in regular sequence to permit the recovery and growth of the pasture plants after grazing.</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Stocking rates per paddock are higher than under set stocking.</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Also cell grazing.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -1052,14 +916,10 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>free standing</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/free_standing</t>
-        </is>
-      </c>
+          <t>mulching/matting</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
@@ -1068,14 +928,10 @@
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>fully protected</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/fully_protected</t>
-        </is>
-      </c>
+          <t>open growing</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
@@ -1087,11 +943,7 @@
           <t>hedgerow</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/hedgerow</t>
-        </is>
-      </c>
+      <c r="C38" s="2" t="inlineStr"/>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
@@ -1100,14 +952,10 @@
       <c r="A39" s="2" t="n"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>mulching/matting</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/mulching_matting</t>
-        </is>
-      </c>
+          <t>free standing</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
@@ -1116,14 +964,10 @@
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>open growing</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/open_growing</t>
-        </is>
-      </c>
+          <t>fully protected</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
@@ -1132,14 +976,10 @@
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>semi-protected</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/semi_protected</t>
-        </is>
-      </c>
+          <t>trellis/espalier</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
@@ -1148,14 +988,10 @@
       <c r="A42" s="2" t="n"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>trellis/espalier</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/trellis_espalier</t>
-        </is>
-      </c>
+          <t>semi-protected</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
@@ -1168,23 +1004,19 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>irrigation drip</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/irrigation_drip</t>
-        </is>
-      </c>
+          <t>irrigation surface</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Irrigation system that applies water to the soil very slowly through tubes/tapes either above or below the soil surface.</t>
+          <t>Water is applied to the land by allowing it to flow by simple gravity before infiltrating. Under furrow irrigation, small parallel channels carry water to irrigate the crop with the crop usually grown on the ridges between the furrows.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Also trickle irrigation.</t>
+          <t>Also flood/furrow irrigation.</t>
         </is>
       </c>
     </row>
@@ -1195,11 +1027,7 @@
           <t>irrigation spray</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/irrigation_spray</t>
-        </is>
-      </c>
+      <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
           <t>Irrigation system that sprays water into the air allowing it to fall on the plants and soil much like natural rainfall.</t>
@@ -1216,23 +1044,19 @@
       <c r="A45" s="2" t="n"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>irrigation surface</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/irrigation_surface</t>
-        </is>
-      </c>
+          <t>irrigation drip</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Water is applied to the land by allowing it to flow by simple gravity before infiltrating. Under furrow irrigation, small parallel channels carry water to irrigate the crop with the crop usually grown on the ridges between the furrows.</t>
+          <t>Irrigation system that applies water to the soil very slowly through tubes/tapes either above or below the soil surface.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Also flood/furrow irrigation.</t>
+          <t>Also trickle irrigation.</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1068,10 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>biodynamic</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/biodynamic</t>
-        </is>
-      </c>
+          <t>crop pasture rotation</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
@@ -1260,14 +1080,10 @@
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>crop pasture rotation</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/crop_pasture_rotation</t>
-        </is>
-      </c>
+          <t>precision agriculture</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
@@ -1279,11 +1095,7 @@
           <t>organic</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/organic</t>
-        </is>
-      </c>
+      <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
@@ -1292,14 +1104,10 @@
       <c r="A49" s="2" t="n"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>pasture cropping</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/pasture_cropping</t>
-        </is>
-      </c>
+          <t>biodynamic</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
@@ -1308,14 +1116,10 @@
       <c r="A50" s="2" t="n"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>precision agriculture</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>https://example.org/landuse/management_practice/precision_agriculture</t>
-        </is>
-      </c>
+          <t>pasture cropping</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>

--- a/classification-systems/nzlum/build/management_practices.xlsx
+++ b/classification-systems/nzlum/build/management_practices.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">milking walk through </t>
+          <t>milking rotary</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -496,7 +496,7 @@
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>milking rotary</t>
+          <t>caged</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>milking hand</t>
+          <t>barn laid</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -520,7 +520,7 @@
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>caged</t>
+          <t>free range</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -532,7 +532,7 @@
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>free range</t>
+          <t xml:space="preserve">milking walk through </t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>barn laid</t>
+          <t>milking herringbone</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -556,7 +556,7 @@
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>milking herringbone</t>
+          <t>milking hand</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>tillage conservation</t>
+          <t>crop pasture rotation</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -596,7 +596,7 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>residues mulched</t>
+          <t>cropping continuous</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>organic</t>
+          <t>cropping strip</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -620,7 +620,7 @@
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>residues heavily grazed</t>
+          <t>cropping multiple</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -632,7 +632,7 @@
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>cropping multiple</t>
+          <t>tillage conservation</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>biodynamic</t>
+          <t>residues heavily grazed</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -656,7 +656,7 @@
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>cropping cover</t>
+          <t>cropping row alley</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -668,7 +668,7 @@
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>crop pasture rotation</t>
+          <t>cropping cover</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -680,7 +680,7 @@
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>fallow chemical</t>
+          <t>contour banks</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -692,7 +692,7 @@
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>tillage conventional</t>
+          <t>precision agriculture</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -704,7 +704,7 @@
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>precision agriculture</t>
+          <t>fallow chemical</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>residues intact</t>
+          <t>residues incorporated</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -728,7 +728,7 @@
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>controlled traffic farming</t>
+          <t>residues burnt</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>residues burnt</t>
+          <t>residues baled</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -752,7 +752,7 @@
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>cropping opportunistic</t>
+          <t>residues mulched</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -764,7 +764,7 @@
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>contour banks</t>
+          <t>tillage conventional</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>fallow mechanical</t>
+          <t>residues intact</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="A27" s="2" t="n"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>cropping continuous</t>
+          <t>organic</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -800,7 +800,7 @@
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>pasture cropping</t>
+          <t>controlled traffic farming</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -812,7 +812,7 @@
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>cropping strip</t>
+          <t>biodynamic</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -824,7 +824,7 @@
       <c r="A30" s="2" t="n"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>residues incorporated</t>
+          <t>fallow mechanical</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -836,7 +836,7 @@
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>cropping row alley</t>
+          <t>cropping opportunistic</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -848,7 +848,7 @@
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>residues baled</t>
+          <t>pasture cropping</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>grazing tactical</t>
+          <t>grazing set stocking</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
@@ -876,37 +876,37 @@
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>grazing set stocking</t>
+          <t>grazing rotational</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Moving livestock between paddocks in regular sequence to permit the recovery and growth of the pasture plants after grazing.</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Stocking rates per paddock are higher than under set stocking.</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Also cell grazing.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>grazing rotational</t>
+          <t>grazing tactical</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>Moving livestock between paddocks in regular sequence to permit the recovery and growth of the pasture plants after grazing.</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Stocking rates per paddock are higher than under set stocking.</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Also cell grazing.</t>
-        </is>
-      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>mulching/matting</t>
+          <t>hedgerow</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -928,7 +928,7 @@
       <c r="A37" s="2" t="n"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>open growing</t>
+          <t>fully protected</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -940,7 +940,7 @@
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>hedgerow</t>
+          <t>open growing</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -952,7 +952,7 @@
       <c r="A39" s="2" t="n"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>free standing</t>
+          <t>semi-protected</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -964,7 +964,7 @@
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>fully protected</t>
+          <t>mulching/matting</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>trellis/espalier</t>
+          <t>free standing</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -988,7 +988,7 @@
       <c r="A42" s="2" t="n"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>semi-protected</t>
+          <t>trellis/espalier</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -1024,19 +1024,19 @@
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>irrigation spray</t>
+          <t>irrigation drip</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Irrigation system that sprays water into the air allowing it to fall on the plants and soil much like natural rainfall.</t>
+          <t>Irrigation system that applies water to the soil very slowly through tubes/tapes either above or below the soil surface.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Sprinklers including set systems, permanent (solid set/fixed), continuous/travelling systems and micro-sprinklers.</t>
+          <t>Also trickle irrigation.</t>
         </is>
       </c>
     </row>
@@ -1044,19 +1044,19 @@
       <c r="A45" s="2" t="n"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>irrigation drip</t>
+          <t>irrigation spray</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Irrigation system that applies water to the soil very slowly through tubes/tapes either above or below the soil surface.</t>
+          <t>Irrigation system that sprays water into the air allowing it to fall on the plants and soil much like natural rainfall.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Also trickle irrigation.</t>
+          <t>Sprinklers including set systems, permanent (solid set/fixed), continuous/travelling systems and micro-sprinklers.</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>organic</t>
+          <t>pasture cropping</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
       <c r="A49" s="2" t="n"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>biodynamic</t>
+          <t>organic</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
       <c r="A50" s="2" t="n"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>pasture cropping</t>
+          <t>biodynamic</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>

--- a/classification-systems/nzlum/build/management_practices.xlsx
+++ b/classification-systems/nzlum/build/management_practices.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>milking rotary</t>
+          <t>barn laid</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>barn laid</t>
+          <t>free range</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -520,7 +520,7 @@
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>free range</t>
+          <t>milking hand</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -532,7 +532,7 @@
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">milking walk through </t>
+          <t>milking herringbone</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>milking herringbone</t>
+          <t>milking rotary</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -556,7 +556,7 @@
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>milking hand</t>
+          <t xml:space="preserve">milking walk through </t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>crop pasture rotation</t>
+          <t>biodynamic</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -584,7 +584,7 @@
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>cropping rotational</t>
+          <t>contour banks</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -596,7 +596,7 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>cropping continuous</t>
+          <t>controlled traffic farming</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>cropping strip</t>
+          <t>crop pasture rotation</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -620,7 +620,7 @@
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>cropping multiple</t>
+          <t>cropping continuous</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -632,7 +632,7 @@
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>tillage conservation</t>
+          <t>cropping cover</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>residues heavily grazed</t>
+          <t>cropping multiple</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -656,7 +656,7 @@
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>cropping row alley</t>
+          <t>cropping opportunistic</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -668,7 +668,7 @@
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>cropping cover</t>
+          <t>cropping rotational</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -680,7 +680,7 @@
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>contour banks</t>
+          <t>cropping row alley</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -692,7 +692,7 @@
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>precision agriculture</t>
+          <t>cropping strip</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>residues incorporated</t>
+          <t>fallow mechanical</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -728,7 +728,7 @@
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>residues burnt</t>
+          <t>organic</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>residues baled</t>
+          <t>pasture cropping</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -752,7 +752,7 @@
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>residues mulched</t>
+          <t>precision agriculture</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -764,7 +764,7 @@
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>tillage conventional</t>
+          <t>residues baled</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>residues intact</t>
+          <t>residues burnt</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="A27" s="2" t="n"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>organic</t>
+          <t>residues heavily grazed</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -800,7 +800,7 @@
       <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>controlled traffic farming</t>
+          <t>residues incorporated</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -812,7 +812,7 @@
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>biodynamic</t>
+          <t>residues intact</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -824,7 +824,7 @@
       <c r="A30" s="2" t="n"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>fallow mechanical</t>
+          <t>residues mulched</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -836,7 +836,7 @@
       <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>cropping opportunistic</t>
+          <t>tillage conservation</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -848,7 +848,7 @@
       <c r="A32" s="2" t="n"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>pasture cropping</t>
+          <t>tillage conventional</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -864,37 +864,37 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>grazing set stocking</t>
+          <t>grazing rotational</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Moving livestock between paddocks in regular sequence to permit the recovery and growth of the pasture plants after grazing.</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Stocking rates per paddock are higher than under set stocking.</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Also cell grazing.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>grazing rotational</t>
+          <t>grazing set stocking</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>Moving livestock between paddocks in regular sequence to permit the recovery and growth of the pasture plants after grazing.</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Stocking rates per paddock are higher than under set stocking.</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Also cell grazing.</t>
-        </is>
-      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>hedgerow</t>
+          <t>free standing</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -940,7 +940,7 @@
       <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>open growing</t>
+          <t>hedgerow</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -952,7 +952,7 @@
       <c r="A39" s="2" t="n"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>semi-protected</t>
+          <t>mulching/matting</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -964,7 +964,7 @@
       <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>mulching/matting</t>
+          <t>open growing</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>free standing</t>
+          <t>semi-protected</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -1004,19 +1004,19 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>irrigation surface</t>
+          <t>irrigation drip</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Water is applied to the land by allowing it to flow by simple gravity before infiltrating. Under furrow irrigation, small parallel channels carry water to irrigate the crop with the crop usually grown on the ridges between the furrows.</t>
+          <t>Irrigation system that applies water to the soil very slowly through tubes/tapes either above or below the soil surface.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Also flood/furrow irrigation.</t>
+          <t>Also trickle irrigation.</t>
         </is>
       </c>
     </row>
@@ -1024,19 +1024,19 @@
       <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>irrigation drip</t>
+          <t>irrigation spray</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Irrigation system that applies water to the soil very slowly through tubes/tapes either above or below the soil surface.</t>
+          <t>Irrigation system that sprays water into the air allowing it to fall on the plants and soil much like natural rainfall.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Also trickle irrigation.</t>
+          <t>Sprinklers including set systems, permanent (solid set/fixed), continuous/travelling systems and micro-sprinklers.</t>
         </is>
       </c>
     </row>
@@ -1044,19 +1044,19 @@
       <c r="A45" s="2" t="n"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>irrigation spray</t>
+          <t>irrigation surface</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Irrigation system that sprays water into the air allowing it to fall on the plants and soil much like natural rainfall.</t>
+          <t>Water is applied to the land by allowing it to flow by simple gravity before infiltrating. Under furrow irrigation, small parallel channels carry water to irrigate the crop with the crop usually grown on the ridges between the furrows.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Sprinklers including set systems, permanent (solid set/fixed), continuous/travelling systems and micro-sprinklers.</t>
+          <t>Also flood/furrow irrigation.</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>crop pasture rotation</t>
+          <t>biodynamic</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="A47" s="2" t="n"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>precision agriculture</t>
+          <t>crop pasture rotation</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -1092,7 +1092,7 @@
       <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>pasture cropping</t>
+          <t>organic</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
       <c r="A49" s="2" t="n"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>organic</t>
+          <t>pasture cropping</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
       <c r="A50" s="2" t="n"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>biodynamic</t>
+          <t>precision agriculture</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
